--- a/res/testcase/preferential/business.xlsx
+++ b/res/testcase/preferential/business.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>动作</t>
   </si>
@@ -318,16 +318,22 @@
     <t>7</t>
   </si>
   <si>
+    <t>加载商家类型</t>
+  </si>
+  <si>
+    <t>BusinessPage.商家类型</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>选择商家类型</t>
   </si>
   <si>
-    <t>BusinessPage.商家类型</t>
-  </si>
-  <si>
     <t>酒店</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>输入联系人</t>
@@ -339,7 +345,7 @@
     <t>UI联系人</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>输入联系人电话</t>
@@ -351,7 +357,7 @@
     <t>13800138000</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>输入登录密码</t>
@@ -363,7 +369,7 @@
     <t>123456</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>输入确认密码</t>
@@ -372,7 +378,7 @@
     <t>BusinessPage.确认密码</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>商家地址</t>
@@ -384,7 +390,7 @@
     <t>瀚天艾科智泊</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>选择所属停车场</t>
@@ -393,9 +399,6 @@
     <t>BusinessPage.所属停车场</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>选择停车场</t>
   </si>
   <si>
@@ -405,25 +408,28 @@
     <t>自动化测试停车场;on</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>点击确认</t>
   </si>
   <si>
     <t>BusinessPage.确认-二级提示</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>2商家管理新增界面</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>BusinessPage.确认-提示</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>操作成功</t>
@@ -435,7 +441,7 @@
     <t>新增商家成功</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>3保存后截图</t>
@@ -551,7 +557,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,9 +578,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,22 +587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,9 +600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,11 +615,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,28 +654,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,7 +678,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +707,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,6 +749,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -731,19 +773,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,121 +875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,17 +916,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,16 +940,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -966,11 +972,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,25 +989,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,145 +1021,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1869,10 +1875,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1995,7 +2001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:5">
+    <row r="8" ht="33" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -2003,135 +2009,130 @@
         <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="E13" s="3">
+        <v>123456</v>
+      </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
@@ -2139,33 +2140,35 @@
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="E17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -2173,63 +2176,80 @@
       <c r="A18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="19" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
         <v>139</v>
       </c>
     </row>
+    <row r="21" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C13 C14 C15 C16 C17 C18 C19 C20 C2:C4 C10:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C17 C18 C19 C20 C21 C2:C4 C11:C13">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C26">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2342,13 +2362,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2359,13 +2379,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2381,27 +2401,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
@@ -2410,15 +2430,15 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>89</v>
@@ -2428,7 +2448,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2551,13 +2571,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2568,13 +2588,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2590,27 +2610,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
@@ -2619,15 +2639,15 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>89</v>
@@ -2637,7 +2657,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2777,13 +2797,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2799,30 +2819,30 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -2831,12 +2851,12 @@
         <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>89</v>
@@ -2846,42 +2866,42 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -2890,15 +2910,15 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>89</v>
@@ -2907,7 +2927,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3041,10 +3061,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -3052,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3074,27 +3094,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>89</v>
@@ -3104,27 +3124,27 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -3133,15 +3153,15 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>89</v>
@@ -3151,7 +3171,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/preferential/business.xlsx
+++ b/res/testcase/preferential/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="003_setStop" sheetId="4" r:id="rId4"/>
     <sheet name="004_editBusiness" sheetId="3" r:id="rId5"/>
     <sheet name="005_delBusiness" sheetId="6" r:id="rId6"/>
+    <sheet name="006_importBusiness" sheetId="7" r:id="rId7"/>
+    <sheet name="007_exportBusiness" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>动作</t>
   </si>
@@ -318,87 +320,84 @@
     <t>7</t>
   </si>
   <si>
-    <t>加载商家类型</t>
+    <t>选择商家类型</t>
   </si>
   <si>
     <t>BusinessPage.商家类型</t>
   </si>
   <si>
+    <t>酒店</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>选择商家类型</t>
-  </si>
-  <si>
-    <t>酒店</t>
+    <t>输入联系人</t>
+  </si>
+  <si>
+    <t>BusinessPage.联系人</t>
+  </si>
+  <si>
+    <t>UI联系人</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>输入联系人</t>
-  </si>
-  <si>
-    <t>BusinessPage.联系人</t>
-  </si>
-  <si>
-    <t>UI联系人</t>
+    <t>输入联系人电话</t>
+  </si>
+  <si>
+    <t>BusinessPage.联系人电话</t>
+  </si>
+  <si>
+    <t>13800138000</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>输入联系人电话</t>
-  </si>
-  <si>
-    <t>BusinessPage.联系人电话</t>
-  </si>
-  <si>
-    <t>13800138000</t>
+    <t>输入登录密码</t>
+  </si>
+  <si>
+    <t>BusinessPage.登录密码</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>输入登录密码</t>
-  </si>
-  <si>
-    <t>BusinessPage.登录密码</t>
-  </si>
-  <si>
-    <t>123456</t>
+    <t>输入确认密码</t>
+  </si>
+  <si>
+    <t>BusinessPage.确认密码</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>输入确认密码</t>
-  </si>
-  <si>
-    <t>BusinessPage.确认密码</t>
+    <t>商家地址</t>
+  </si>
+  <si>
+    <t>BusinessPage.商家地址</t>
+  </si>
+  <si>
+    <t>瀚天艾科智泊</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>商家地址</t>
-  </si>
-  <si>
-    <t>BusinessPage.商家地址</t>
-  </si>
-  <si>
-    <t>瀚天艾科智泊</t>
+    <t>选择所属停车场</t>
+  </si>
+  <si>
+    <t>BusinessPage.所属停车场</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>选择所属停车场</t>
-  </si>
-  <si>
-    <t>BusinessPage.所属停车场</t>
-  </si>
-  <si>
     <t>选择停车场</t>
   </si>
   <si>
@@ -408,27 +407,27 @@
     <t>自动化测试停车场;on</t>
   </si>
   <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>BusinessPage.确认-二级提示</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>BusinessPage.确认-二级提示</t>
+    <t>2商家管理新增界面</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>2商家管理新增界面</t>
+    <t>BusinessPage.确认-提示</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>BusinessPage.确认-提示</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -520,6 +519,57 @@
   </si>
   <si>
     <t>删除成功</t>
+  </si>
+  <si>
+    <t>点击导入</t>
+  </si>
+  <si>
+    <t>BusinessPage.导入</t>
+  </si>
+  <si>
+    <t>输入选择文件</t>
+  </si>
+  <si>
+    <t>BusinessPage.选择文件</t>
+  </si>
+  <si>
+    <t>G:\upload\trader_import.csv</t>
+  </si>
+  <si>
+    <t>BusinessPage.导入显示框</t>
+  </si>
+  <si>
+    <t>失败记录0条</t>
+  </si>
+  <si>
+    <t>2导入商家界面</t>
+  </si>
+  <si>
+    <t>BusinessPage.取消-提示</t>
+  </si>
+  <si>
+    <t>点击搜索框</t>
+  </si>
+  <si>
+    <t>UI商家导入</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>点击删除</t>
+  </si>
+  <si>
+    <t>点击确认-提示</t>
+  </si>
+  <si>
+    <t>BusinessPage.导出</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
+  </si>
+  <si>
+    <t>2导出成功</t>
   </si>
 </sst>
 </file>
@@ -528,9 +578,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -557,7 +607,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,8 +628,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,7 +638,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,8 +666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,25 +682,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,23 +707,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,15 +736,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,31 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,18 +775,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -773,7 +787,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,19 +889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,49 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,17 +966,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,16 +990,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -972,9 +1022,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,27 +1041,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,149 +1071,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,6 +1230,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1550,218 +1603,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -1829,7 +1882,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1837,7 +1890,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1845,7 +1898,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1853,7 +1906,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1877,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2001,7 +2054,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:4">
+    <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -2009,130 +2062,135 @@
         <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="3">
-        <v>123456</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
@@ -2140,35 +2198,33 @@
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>126</v>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -2176,16 +2232,16 @@
       <c r="A18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>89</v>
+      <c r="B18" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="E18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -2193,14 +2249,14 @@
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>130</v>
+      <c r="B19" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="1"/>
@@ -2208,24 +2264,24 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>89</v>
@@ -2235,7 +2291,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2299,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C17 C18 C19 C20 C21 C2:C4 C11:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C13 C14 C15 C16 C17 C18 C19 C20 C21 C2:C4 C10:C12">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C26">
@@ -2362,13 +2418,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2379,13 +2435,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2401,27 +2457,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
@@ -2430,15 +2486,15 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>89</v>
@@ -2448,7 +2504,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2571,13 +2627,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2588,13 +2644,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2610,27 +2666,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
@@ -2639,15 +2695,15 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>89</v>
@@ -2657,7 +2713,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2797,13 +2853,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2819,30 +2875,30 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -2851,12 +2907,12 @@
         <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>89</v>
@@ -2866,42 +2922,42 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -2910,15 +2966,15 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>89</v>
@@ -2927,7 +2983,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2959,7 +3015,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3061,10 +3117,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -3072,13 +3128,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3094,27 +3150,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>89</v>
@@ -3124,27 +3180,27 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -3153,15 +3209,15 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>89</v>
@@ -3171,7 +3227,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3189,4 +3245,482 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C4 C18:C19">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C17 C6:C7 C12:C16">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C4 C10:C11">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C9 C7:C8">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/preferential/business.xlsx
+++ b/res/testcase/preferential/business.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>动作</t>
   </si>
@@ -428,19 +428,16 @@
     <t>18</t>
   </si>
   <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>BusinessPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>新增商家成功</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>BusinessPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>新增商家成功</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>3保存后截图</t>
@@ -577,10 +574,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -600,29 +597,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,6 +701,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -752,36 +749,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +874,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -966,30 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1001,6 +974,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,6 +1037,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1071,10 +1068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,137 +1080,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,9 +1227,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1603,218 +1597,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -1882,7 +1876,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1890,7 +1884,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1898,7 +1892,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1906,7 +1900,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1928,10 +1922,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2232,7 +2226,7 @@
       <c r="A18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2245,67 +2239,50 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" s="5" customFormat="1" ht="33" customHeight="1" spans="1:8">
+    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>128</v>
+      <c r="B19" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>136</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A21" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C13 C14 C15 C16 C17 C18 C19 C20 C21 C2:C4 C10:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C13 C14 C15 C16 C17 C18 C19 C20 C2:C4 C10:C12">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C25">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2321,7 +2298,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2418,13 +2395,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2435,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2457,7 +2434,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
@@ -2486,10 +2463,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
@@ -2504,7 +2481,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2627,13 +2604,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2644,13 +2621,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2666,7 +2643,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
@@ -2695,10 +2672,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:5">
@@ -2713,7 +2690,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>97</v>
@@ -2853,13 +2830,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2875,7 +2852,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2883,13 +2860,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2898,7 +2875,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -2907,7 +2884,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2922,7 +2899,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2966,10 +2943,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
@@ -2983,7 +2960,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +2992,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3117,10 +3094,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -3128,13 +3105,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3150,7 +3127,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
@@ -3158,13 +3135,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3180,7 +3157,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
@@ -3209,10 +3186,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:5">
@@ -3227,7 +3204,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3349,13 +3326,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3364,16 +3341,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3402,10 +3379,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3420,7 +3397,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3434,7 +3411,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3443,16 +3420,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3460,13 +3437,13 @@
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3475,13 +3452,13 @@
         <v>121</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -3490,7 +3467,7 @@
         <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
@@ -3511,10 +3488,10 @@
         <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3529,7 +3506,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3651,13 +3628,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3666,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -3687,10 +3664,10 @@
         <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3705,7 +3682,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/preferential/business.xlsx
+++ b/res/testcase/preferential/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
     <t>BusinessPage.联系人电话</t>
   </si>
   <si>
-    <t>13800138000</t>
+    <t>13800138004</t>
   </si>
   <si>
     <t>10</t>
@@ -404,7 +404,7 @@
     <t>BusinessPage.选择停车场</t>
   </si>
   <si>
-    <t>自动化测试停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>点击确认</t>
@@ -574,9 +574,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -597,6 +597,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,29 +724,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -749,6 +749,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,36 +904,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -963,6 +963,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -974,15 +998,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,21 +1052,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1068,10 +1068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,133 +1080,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,7 +1305,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1924,8 +1924,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2713,10 +2713,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2922,62 +2922,47 @@
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>136</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 C13 B14 C14 C15 C6:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 B13 C13 C14 C6:C7">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C26">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2992,7 +2977,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
